--- a/natmiOut/OldD4/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>C1qb</t>
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>300.684602060258</v>
+        <v>0.531705</v>
       </c>
       <c r="H2">
-        <v>300.684602060258</v>
+        <v>1.595115</v>
       </c>
       <c r="I2">
-        <v>0.5510850163677046</v>
+        <v>0.0007769750683685355</v>
       </c>
       <c r="J2">
-        <v>0.5510850163677046</v>
+        <v>0.0007779394035069672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>1010.030326000049</v>
+        <v>2.09846665364</v>
       </c>
       <c r="R2">
-        <v>1010.030326000049</v>
+        <v>18.88619988276</v>
       </c>
       <c r="S2">
-        <v>0.003933392453636038</v>
+        <v>6.279736155043278E-06</v>
       </c>
       <c r="T2">
-        <v>0.003933392453636038</v>
+        <v>6.470653762009278E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>300.684602060258</v>
+        <v>0.531705</v>
       </c>
       <c r="H3">
-        <v>300.684602060258</v>
+        <v>1.595115</v>
       </c>
       <c r="I3">
-        <v>0.5510850163677046</v>
+        <v>0.0007769750683685355</v>
       </c>
       <c r="J3">
-        <v>0.5510850163677046</v>
+        <v>0.0007779394035069672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>52629.36040599144</v>
+        <v>98.79224817575499</v>
       </c>
       <c r="R3">
-        <v>52629.36040599144</v>
+        <v>889.130233581795</v>
       </c>
       <c r="S3">
-        <v>0.2049561520399418</v>
+        <v>0.0002956393191338874</v>
       </c>
       <c r="T3">
-        <v>0.2049561520399418</v>
+        <v>0.0003046273960117305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>300.684602060258</v>
+        <v>0.531705</v>
       </c>
       <c r="H4">
-        <v>300.684602060258</v>
+        <v>1.595115</v>
       </c>
       <c r="I4">
-        <v>0.5510850163677046</v>
+        <v>0.0007769750683685355</v>
       </c>
       <c r="J4">
-        <v>0.5510850163677046</v>
+        <v>0.0007779394035069672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>34750.21279132989</v>
+        <v>62.389958615155</v>
       </c>
       <c r="R4">
-        <v>34750.21279132989</v>
+        <v>561.5096275363951</v>
       </c>
       <c r="S4">
-        <v>0.1353288324489941</v>
+        <v>0.00018670417189982</v>
       </c>
       <c r="T4">
-        <v>0.1353288324489941</v>
+        <v>0.0001923803838981626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>300.684602060258</v>
+        <v>0.531705</v>
       </c>
       <c r="H5">
-        <v>300.684602060258</v>
+        <v>1.595115</v>
       </c>
       <c r="I5">
-        <v>0.5510850163677046</v>
+        <v>0.0007769750683685355</v>
       </c>
       <c r="J5">
-        <v>0.5510850163677046</v>
+        <v>0.0007779394035069672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>40788.85992033918</v>
+        <v>74.31329861639499</v>
       </c>
       <c r="R5">
-        <v>40788.85992033918</v>
+        <v>668.8196875475551</v>
       </c>
       <c r="S5">
-        <v>0.1588453234255382</v>
+        <v>0.000222385191259733</v>
       </c>
       <c r="T5">
-        <v>0.1588453234255382</v>
+        <v>0.0002291461836791178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>300.684602060258</v>
+        <v>0.531705</v>
       </c>
       <c r="H6">
-        <v>300.684602060258</v>
+        <v>1.595115</v>
       </c>
       <c r="I6">
-        <v>0.5510850163677046</v>
+        <v>0.0007769750683685355</v>
       </c>
       <c r="J6">
-        <v>0.5510850163677046</v>
+        <v>0.0007779394035069672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>12331.08214492697</v>
+        <v>22.04373108867</v>
       </c>
       <c r="R6">
-        <v>12331.08214492697</v>
+        <v>132.26238653202</v>
       </c>
       <c r="S6">
-        <v>0.04802131599959453</v>
+        <v>6.59666499200518E-05</v>
       </c>
       <c r="T6">
-        <v>0.04802131599959453</v>
+        <v>4.531478615594698E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>244.938293009765</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H7">
-        <v>244.938293009765</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I7">
-        <v>0.4489149836322954</v>
+        <v>0.00225925722333986</v>
       </c>
       <c r="J7">
-        <v>0.4489149836322954</v>
+        <v>0.002262061278728403</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>822.7727733426465</v>
+        <v>6.101837933009777</v>
       </c>
       <c r="R7">
-        <v>822.7727733426465</v>
+        <v>54.91654139708799</v>
       </c>
       <c r="S7">
-        <v>0.003204149553152133</v>
+        <v>1.825996720685066E-05</v>
       </c>
       <c r="T7">
-        <v>0.003204149553152133</v>
+        <v>1.881510983646732E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>244.938293009765</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H8">
-        <v>244.938293009765</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I8">
-        <v>0.4489149836322954</v>
+        <v>0.00225925722333986</v>
       </c>
       <c r="J8">
-        <v>0.4489149836322954</v>
+        <v>0.002262061278728403</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>42871.98483630989</v>
+        <v>287.2641727999328</v>
       </c>
       <c r="R8">
-        <v>42871.98483630989</v>
+        <v>2585.377555199396</v>
       </c>
       <c r="S8">
-        <v>0.1669577014537401</v>
+        <v>0.0008596482621495166</v>
       </c>
       <c r="T8">
-        <v>0.1669577014537401</v>
+        <v>0.0008857834348685583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>244.938293009765</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H9">
-        <v>244.938293009765</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I9">
-        <v>0.4489149836322954</v>
+        <v>0.00225925722333986</v>
       </c>
       <c r="J9">
-        <v>0.4489149836322954</v>
+        <v>0.002262061278728403</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>28307.5945509464</v>
+        <v>181.4150420053195</v>
       </c>
       <c r="R9">
-        <v>28307.5945509464</v>
+        <v>1632.735378047876</v>
       </c>
       <c r="S9">
-        <v>0.1102391442326612</v>
+        <v>0.0005428909705919685</v>
       </c>
       <c r="T9">
-        <v>0.1102391442326612</v>
+        <v>0.0005593960342427126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>244.938293009765</v>
+        <v>1.546070666666666</v>
       </c>
       <c r="H10">
-        <v>244.938293009765</v>
+        <v>4.638211999999999</v>
       </c>
       <c r="I10">
-        <v>0.4489149836322954</v>
+        <v>0.00225925722333986</v>
       </c>
       <c r="J10">
-        <v>0.4489149836322954</v>
+        <v>0.002262061278728403</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>33226.68887680562</v>
+        <v>216.0852561740982</v>
       </c>
       <c r="R10">
-        <v>33226.68887680562</v>
+        <v>1944.767305566884</v>
       </c>
       <c r="S10">
-        <v>0.1293957259728193</v>
+        <v>0.0006466428205635257</v>
       </c>
       <c r="T10">
-        <v>0.1293957259728193</v>
+        <v>0.0006663021656085537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.546070666666666</v>
+      </c>
+      <c r="H11">
+        <v>4.638211999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.00225925722333986</v>
+      </c>
+      <c r="J11">
+        <v>0.002262061278728403</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>41.458574</v>
+      </c>
+      <c r="N11">
+        <v>82.917148</v>
+      </c>
+      <c r="O11">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P11">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q11">
+        <v>64.09788514322932</v>
+      </c>
+      <c r="R11">
+        <v>384.5873108593759</v>
+      </c>
+      <c r="S11">
+        <v>0.0001918152028279988</v>
+      </c>
+      <c r="T11">
+        <v>0.0001317645341721112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>354.9902393333334</v>
+      </c>
+      <c r="H12">
+        <v>1064.970718</v>
+      </c>
+      <c r="I12">
+        <v>0.518743599319509</v>
+      </c>
+      <c r="J12">
+        <v>0.5193874329520484</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N12">
+        <v>11.840024</v>
+      </c>
+      <c r="O12">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P12">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q12">
+        <v>1401.030984490804</v>
+      </c>
+      <c r="R12">
+        <v>12609.27886041723</v>
+      </c>
+      <c r="S12">
+        <v>0.004192635090189109</v>
+      </c>
+      <c r="T12">
+        <v>0.004320100295499963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>354.9902393333334</v>
+      </c>
+      <c r="H13">
+        <v>1064.970718</v>
+      </c>
+      <c r="I13">
+        <v>0.518743599319509</v>
+      </c>
+      <c r="J13">
+        <v>0.5193874329520484</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N13">
+        <v>557.408233</v>
+      </c>
+      <c r="O13">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P13">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q13">
+        <v>65958.16067968015</v>
+      </c>
+      <c r="R13">
+        <v>593623.4461171213</v>
+      </c>
+      <c r="S13">
+        <v>0.1973821435865422</v>
+      </c>
+      <c r="T13">
+        <v>0.2033829890967629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>354.9902393333334</v>
+      </c>
+      <c r="H14">
+        <v>1064.970718</v>
+      </c>
+      <c r="I14">
+        <v>0.518743599319509</v>
+      </c>
+      <c r="J14">
+        <v>0.5193874329520484</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N14">
+        <v>352.018273</v>
+      </c>
+      <c r="O14">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P14">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q14">
+        <v>41654.35032732556</v>
+      </c>
+      <c r="R14">
+        <v>374889.15294593</v>
+      </c>
+      <c r="S14">
+        <v>0.1246521260233568</v>
+      </c>
+      <c r="T14">
+        <v>0.128441821165961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>244.938293009765</v>
-      </c>
-      <c r="H11">
-        <v>244.938293009765</v>
-      </c>
-      <c r="I11">
-        <v>0.4489149836322954</v>
-      </c>
-      <c r="J11">
-        <v>0.4489149836322954</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="N11">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="O11">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="P11">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="Q11">
-        <v>10044.92478446341</v>
-      </c>
-      <c r="R11">
-        <v>10044.92478446341</v>
-      </c>
-      <c r="S11">
-        <v>0.0391182624199227</v>
-      </c>
-      <c r="T11">
-        <v>0.0391182624199227</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>354.9902393333334</v>
+      </c>
+      <c r="H15">
+        <v>1064.970718</v>
+      </c>
+      <c r="I15">
+        <v>0.518743599319509</v>
+      </c>
+      <c r="J15">
+        <v>0.5193874329520484</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N15">
+        <v>419.292457</v>
+      </c>
+      <c r="O15">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P15">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q15">
+        <v>49614.90988703046</v>
+      </c>
+      <c r="R15">
+        <v>446534.1889832742</v>
+      </c>
+      <c r="S15">
+        <v>0.1484743838584962</v>
+      </c>
+      <c r="T15">
+        <v>0.1529883273367187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>354.9902393333334</v>
+      </c>
+      <c r="H16">
+        <v>1064.970718</v>
+      </c>
+      <c r="I16">
+        <v>0.518743599319509</v>
+      </c>
+      <c r="J16">
+        <v>0.5193874329520484</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>41.458574</v>
+      </c>
+      <c r="N16">
+        <v>82.917148</v>
+      </c>
+      <c r="O16">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P16">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q16">
+        <v>14717.38910667871</v>
+      </c>
+      <c r="R16">
+        <v>88304.33464007227</v>
+      </c>
+      <c r="S16">
+        <v>0.0440423107609246</v>
+      </c>
+      <c r="T16">
+        <v>0.0302541950571058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>324.7140833333333</v>
+      </c>
+      <c r="H17">
+        <v>974.1422500000001</v>
+      </c>
+      <c r="I17">
+        <v>0.4745013627822628</v>
+      </c>
+      <c r="J17">
+        <v>0.4750902855881456</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.840024</v>
+      </c>
+      <c r="O17">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P17">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q17">
+        <v>1281.540846601556</v>
+      </c>
+      <c r="R17">
+        <v>11533.867619414</v>
+      </c>
+      <c r="S17">
+        <v>0.003835056599355036</v>
+      </c>
+      <c r="T17">
+        <v>0.003951650642552219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>324.7140833333333</v>
+      </c>
+      <c r="H18">
+        <v>974.1422500000001</v>
+      </c>
+      <c r="I18">
+        <v>0.4745013627822628</v>
+      </c>
+      <c r="J18">
+        <v>0.4750902855881456</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N18">
+        <v>557.408233</v>
+      </c>
+      <c r="O18">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P18">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q18">
+        <v>60332.76780701603</v>
+      </c>
+      <c r="R18">
+        <v>542994.9102631443</v>
+      </c>
+      <c r="S18">
+        <v>0.1805479551816347</v>
+      </c>
+      <c r="T18">
+        <v>0.1860370048319452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>324.7140833333333</v>
+      </c>
+      <c r="H19">
+        <v>974.1422500000001</v>
+      </c>
+      <c r="I19">
+        <v>0.4745013627822628</v>
+      </c>
+      <c r="J19">
+        <v>0.4750902855881456</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N19">
+        <v>352.018273</v>
+      </c>
+      <c r="O19">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P19">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q19">
+        <v>38101.76361125937</v>
+      </c>
+      <c r="R19">
+        <v>342915.8725013343</v>
+      </c>
+      <c r="S19">
+        <v>0.1140208838227197</v>
+      </c>
+      <c r="T19">
+        <v>0.1174873661312319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>324.7140833333333</v>
+      </c>
+      <c r="H20">
+        <v>974.1422500000001</v>
+      </c>
+      <c r="I20">
+        <v>0.4745013627822628</v>
+      </c>
+      <c r="J20">
+        <v>0.4750902855881456</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N20">
+        <v>419.292457</v>
+      </c>
+      <c r="O20">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P20">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q20">
+        <v>45383.3886077787</v>
+      </c>
+      <c r="R20">
+        <v>408450.4974700083</v>
+      </c>
+      <c r="S20">
+        <v>0.13581140581114</v>
+      </c>
+      <c r="T20">
+        <v>0.1399403672763964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>324.7140833333333</v>
+      </c>
+      <c r="H21">
+        <v>974.1422500000001</v>
+      </c>
+      <c r="I21">
+        <v>0.4745013627822628</v>
+      </c>
+      <c r="J21">
+        <v>0.4750902855881456</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.458574</v>
+      </c>
+      <c r="N21">
+        <v>82.917148</v>
+      </c>
+      <c r="O21">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P21">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q21">
+        <v>13462.18285271717</v>
+      </c>
+      <c r="R21">
+        <v>80773.097116303</v>
+      </c>
+      <c r="S21">
+        <v>0.04028606136741338</v>
+      </c>
+      <c r="T21">
+        <v>0.02767389670601997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>2.544879</v>
+      </c>
+      <c r="H22">
+        <v>5.089758</v>
+      </c>
+      <c r="I22">
+        <v>0.003718805606519875</v>
+      </c>
+      <c r="J22">
+        <v>0.002482280777570779</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.840024</v>
+      </c>
+      <c r="O22">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P22">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q22">
+        <v>10.043809479032</v>
+      </c>
+      <c r="R22">
+        <v>60.262856874192</v>
+      </c>
+      <c r="S22">
+        <v>3.005645737111816E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.06468259344416E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>2.544879</v>
+      </c>
+      <c r="H23">
+        <v>5.089758</v>
+      </c>
+      <c r="I23">
+        <v>0.003718805606519875</v>
+      </c>
+      <c r="J23">
+        <v>0.002482280777570779</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N23">
+        <v>557.408233</v>
+      </c>
+      <c r="O23">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P23">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q23">
+        <v>472.845502196269</v>
+      </c>
+      <c r="R23">
+        <v>2837.073013177614</v>
+      </c>
+      <c r="S23">
+        <v>0.001415006996056325</v>
+      </c>
+      <c r="T23">
+        <v>0.0009720175196583778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>2.544879</v>
+      </c>
+      <c r="H24">
+        <v>5.089758</v>
+      </c>
+      <c r="I24">
+        <v>0.003718805606519875</v>
+      </c>
+      <c r="J24">
+        <v>0.002482280777570779</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N24">
+        <v>352.018273</v>
+      </c>
+      <c r="O24">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P24">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q24">
+        <v>298.614636857989</v>
+      </c>
+      <c r="R24">
+        <v>1791.687821147934</v>
+      </c>
+      <c r="S24">
+        <v>0.0008936149298581773</v>
+      </c>
+      <c r="T24">
+        <v>0.0006138551753251297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>2.544879</v>
+      </c>
+      <c r="H25">
+        <v>5.089758</v>
+      </c>
+      <c r="I25">
+        <v>0.003718805606519875</v>
+      </c>
+      <c r="J25">
+        <v>0.002482280777570779</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N25">
+        <v>419.292457</v>
+      </c>
+      <c r="O25">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P25">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q25">
+        <v>355.682856225901</v>
+      </c>
+      <c r="R25">
+        <v>2134.097137355406</v>
+      </c>
+      <c r="S25">
+        <v>0.001064393607635584</v>
+      </c>
+      <c r="T25">
+        <v>0.0007311689887878048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>2.544879</v>
+      </c>
+      <c r="H26">
+        <v>5.089758</v>
+      </c>
+      <c r="I26">
+        <v>0.003718805606519875</v>
+      </c>
+      <c r="J26">
+        <v>0.002482280777570779</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>41.458574</v>
+      </c>
+      <c r="N26">
+        <v>82.917148</v>
+      </c>
+      <c r="O26">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P26">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q26">
+        <v>105.507054342546</v>
+      </c>
+      <c r="R26">
+        <v>422.028217370184</v>
+      </c>
+      <c r="S26">
+        <v>0.0003157336155986713</v>
+      </c>
+      <c r="T26">
+        <v>0.0001445922678650257</v>
       </c>
     </row>
   </sheetData>
